--- a/GATEWAY/A1#111#WEPSERVICESX1/STI srl/IGEA/V.1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#WEPSERVICESX1/STI srl/IGEA/V.1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lorenzo\MyWork\FSE\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA0DFA-C4C7-4720-96FD-1BD63EC4008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178EF439-3B2E-48A2-B49B-F2200F8CFC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26595" yWindow="405" windowWidth="25200" windowHeight="14985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="524">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1955,9 +1955,6 @@
     <t>Mostra un messaggio di errore all'utente riportando in dettaglio la risposta che viene fornita dal gateway</t>
   </si>
   <si>
-    <t>Non si può verificare perché viene gestito obbligatoriamente dall'applicativo</t>
-  </si>
-  <si>
     <t xml:space="preserve">L'operazione di retry viene eseguita manualmente dall'utente medico </t>
   </si>
   <si>
@@ -1998,6 +1995,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.083d4da353^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-08-22T10:37:07</t>
+  </si>
+  <si>
+    <t>74bd3dcb-606f-11ef-a6bf-005056ae7395 (GOVWAY_ID)</t>
+  </si>
+  <si>
+    <t>Devono contattare l'assistenza tecnica</t>
   </si>
 </sst>
 </file>
@@ -2914,6 +2920,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2935,9 +2944,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3236,7 +3242,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4384,11 +4390,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA809"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="U51" sqref="U51"/>
+      <selection pane="bottomRight" activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4403,7 +4409,8 @@
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="33.21875" customWidth="1"/>
     <col min="10" max="10" width="27.21875" customWidth="1"/>
-    <col min="11" max="18" width="36.44140625" customWidth="1"/>
+    <col min="11" max="11" width="70.6640625" customWidth="1"/>
+    <col min="12" max="18" width="36.44140625" customWidth="1"/>
     <col min="19" max="19" width="27.21875" customWidth="1"/>
     <col min="20" max="20" width="33.21875" customWidth="1"/>
     <col min="21" max="21" width="36.44140625" customWidth="1"/>
@@ -4433,12 +4440,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="72"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4459,14 +4466,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="79" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="80" t="s">
         <v>503</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4487,12 +4494,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="79" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4514,12 +4521,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="71"/>
+      <c r="D5" s="72"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4540,8 +4547,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5625,7 +5632,7 @@
         <v>307</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34" t="s">
@@ -5640,11 +5647,15 @@
       <c r="P35" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="Q35" s="34"/>
+      <c r="Q35" s="34" t="s">
+        <v>307</v>
+      </c>
       <c r="R35" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="S35" s="34"/>
+      <c r="S35" s="34" t="s">
+        <v>523</v>
+      </c>
       <c r="T35" s="34"/>
       <c r="U35" s="35"/>
       <c r="V35" s="36"/>
@@ -5927,16 +5938,20 @@
       <c r="E43" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="F43" s="32">
+        <v>45526</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>522</v>
+      </c>
       <c r="I43" s="33"/>
       <c r="J43" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>507</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34" t="s">
         <v>87</v>
@@ -5950,11 +5965,15 @@
       <c r="P43" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="Q43" s="34"/>
+      <c r="Q43" s="34" t="s">
+        <v>307</v>
+      </c>
       <c r="R43" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="S43" s="34"/>
+      <c r="S43" s="34" t="s">
+        <v>523</v>
+      </c>
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
       <c r="V43" s="36"/>
@@ -6249,19 +6268,31 @@
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
+      <c r="J51" s="34" t="s">
+        <v>307</v>
+      </c>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
+      <c r="M51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N51" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="O51" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="80" t="s">
-        <v>508</v>
+      <c r="P51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q51" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="R51" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="S51" s="68" t="s">
+        <v>507</v>
       </c>
       <c r="T51" s="34"/>
       <c r="U51" s="35" t="s">
@@ -9924,13 +9955,13 @@
         <v>45518</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>87</v>
@@ -9971,13 +10002,13 @@
         <v>45518</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J151" s="34" t="s">
         <v>87</v>
@@ -10018,13 +10049,13 @@
         <v>45518</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I152" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J152" s="34" t="s">
         <v>87</v>
@@ -10065,13 +10096,13 @@
         <v>45518</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J153" s="34" t="s">
         <v>87</v>
@@ -10116,7 +10147,7 @@
         <v>307</v>
       </c>
       <c r="K154" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L154" s="34"/>
       <c r="M154" s="34"/>
@@ -10157,7 +10188,7 @@
         <v>307</v>
       </c>
       <c r="K155" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L155" s="34"/>
       <c r="M155" s="34"/>
@@ -10198,7 +10229,7 @@
         <v>307</v>
       </c>
       <c r="K156" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L156" s="34"/>
       <c r="M156" s="34"/>
@@ -10239,7 +10270,7 @@
         <v>307</v>
       </c>
       <c r="K157" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L157" s="34"/>
       <c r="M157" s="34"/>
@@ -10280,7 +10311,7 @@
         <v>307</v>
       </c>
       <c r="K158" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L158" s="34"/>
       <c r="M158" s="34"/>
@@ -10321,7 +10352,7 @@
         <v>307</v>
       </c>
       <c r="K159" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L159" s="34"/>
       <c r="M159" s="34"/>
@@ -10362,7 +10393,7 @@
         <v>307</v>
       </c>
       <c r="K160" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L160" s="34"/>
       <c r="M160" s="34"/>
@@ -10403,7 +10434,7 @@
         <v>307</v>
       </c>
       <c r="K161" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L161" s="34"/>
       <c r="M161" s="34"/>
@@ -10444,7 +10475,7 @@
         <v>307</v>
       </c>
       <c r="K162" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L162" s="34"/>
       <c r="M162" s="34"/>
@@ -10485,7 +10516,7 @@
         <v>307</v>
       </c>
       <c r="K163" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L163" s="34"/>
       <c r="M163" s="34"/>
@@ -10526,7 +10557,7 @@
         <v>307</v>
       </c>
       <c r="K164" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L164" s="34"/>
       <c r="M164" s="34"/>
@@ -10567,7 +10598,7 @@
         <v>307</v>
       </c>
       <c r="K165" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L165" s="34"/>
       <c r="M165" s="34"/>
@@ -10608,7 +10639,7 @@
         <v>307</v>
       </c>
       <c r="K166" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L166" s="34"/>
       <c r="M166" s="34"/>
@@ -10649,7 +10680,7 @@
         <v>307</v>
       </c>
       <c r="K167" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L167" s="34"/>
       <c r="M167" s="34"/>
@@ -10690,7 +10721,7 @@
         <v>307</v>
       </c>
       <c r="K168" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L168" s="34"/>
       <c r="M168" s="34"/>
@@ -10731,7 +10762,7 @@
         <v>307</v>
       </c>
       <c r="K169" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L169" s="34"/>
       <c r="M169" s="34"/>
@@ -10772,7 +10803,7 @@
         <v>307</v>
       </c>
       <c r="K170" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L170" s="34"/>
       <c r="M170" s="34"/>
@@ -10813,7 +10844,7 @@
         <v>307</v>
       </c>
       <c r="K171" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L171" s="34"/>
       <c r="M171" s="34"/>
@@ -10854,7 +10885,7 @@
         <v>307</v>
       </c>
       <c r="K172" s="34" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="L172" s="34"/>
       <c r="M172" s="34"/>
@@ -11742,13 +11773,13 @@
         <v>45518</v>
       </c>
       <c r="G196" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="H196" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="H196" s="33" t="s">
+      <c r="I196" s="33" t="s">
         <v>520</v>
-      </c>
-      <c r="I196" s="33" t="s">
-        <v>521</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -12795,7 +12826,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="58">
         <v>442</v>
       </c>
@@ -12965,7 +12996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="58">
         <v>446</v>
       </c>
@@ -19917,15 +19948,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -19935,6 +19957,15 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20196,14 +20227,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -20216,6 +20239,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#WEPSERVICESX1/STI srl/IGEA/V.1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#WEPSERVICESX1/STI srl/IGEA/V.1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lorenzo\MyWork\FSE\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178EF439-3B2E-48A2-B49B-F2200F8CFC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08BC4B-2822-43B2-94B4-20F1082E09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4394,7 +4394,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="T35" sqref="T35"/>
+      <selection pane="bottomRight" activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6269,7 +6269,7 @@
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
       <c r="J51" s="34" t="s">
-        <v>307</v>
+        <v>87</v>
       </c>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
@@ -19948,6 +19948,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -19957,15 +19966,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20227,6 +20227,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -20239,14 +20247,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#WEPSERVICESX1/STI srl/IGEA/V.1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#WEPSERVICESX1/STI srl/IGEA/V.1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lorenzo\MyWork\FSE\Project\Fse\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D3403-F5C8-4964-9617-B32ADDA5ACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD0471-02CB-4689-A6E8-B29721CAFC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="521">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1958,25 +1958,7 @@
     <t xml:space="preserve">L'operazione di retry viene eseguita manualmente dall'utente medico </t>
   </si>
   <si>
-    <t>Devono contattare l'assistenza tecnica</t>
-  </si>
-  <si>
-    <t>2024-09-13T22:51:30</t>
-  </si>
-  <si>
-    <t>b220d61555760009</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fc6c9e775b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-09-13T22:51:32</t>
-  </si>
-  <si>
-    <t>fa471a3ec76dfc8e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b51aa2e6e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>f492e98109a9c699</t>
@@ -2753,7 +2735,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2947,8 +2929,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2971,9 +2953,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4422,10 +4401,10 @@
   <dimension ref="A1:AA809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G153" sqref="G153"/>
+      <selection pane="bottomRight" activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5655,44 +5634,24 @@
       <c r="E35" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="32">
-        <v>45548</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>511</v>
-      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" s="34"/>
+        <v>307</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>314</v>
+      </c>
       <c r="L35" s="34"/>
-      <c r="M35" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="N35" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="O35" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="P35" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q35" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="R35" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="S35" s="34" t="s">
-        <v>508</v>
-      </c>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
       <c r="T35" s="34"/>
       <c r="U35" s="35"/>
       <c r="V35" s="36"/>
@@ -5975,44 +5934,24 @@
       <c r="E43" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="32">
-        <v>45548</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="H43" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>514</v>
-      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="K43" s="69"/>
+        <v>307</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>314</v>
+      </c>
       <c r="L43" s="34"/>
-      <c r="M43" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="N43" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="O43" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="P43" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q43" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="R43" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="S43" s="34" t="s">
-        <v>508</v>
-      </c>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
       <c r="V43" s="36"/>
@@ -9994,13 +9933,13 @@
         <v>45548</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>87</v>
@@ -10041,13 +9980,13 @@
         <v>45548</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J151" s="34" t="s">
         <v>87</v>
@@ -10088,13 +10027,13 @@
         <v>45548</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I152" s="33" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J152" s="34" t="s">
         <v>87</v>
@@ -10135,13 +10074,13 @@
         <v>45548</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J153" s="34" t="s">
         <v>87</v>
@@ -11812,13 +11751,13 @@
         <v>45548</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H196" s="33" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="I196" s="33" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>87</v>
@@ -12865,7 +12804,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:27" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="58">
         <v>442</v>
       </c>
@@ -13035,7 +12974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:27" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="58">
         <v>446</v>
       </c>
@@ -13113,7 +13052,7 @@
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
-      <c r="I226" s="82"/>
+      <c r="I226" s="69"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
       <c r="L226" s="7"/>
@@ -17740,7 +17679,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K42 K44:K225</xm:sqref>
+          <xm:sqref>K10:K225</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
